--- a/paper_audio/paper_audio.xlsx
+++ b/paper_audio/paper_audio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1dev_projects\book_data_analysis\paper_audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6.dev\book_data_analysis\paper_audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82FCEF5-345F-432B-AB07-D020799564DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6AD937-3EA2-43CC-9EF5-45821AFA025E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{44E701D9-6557-47F1-869B-432306B867B4}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{44E701D9-6557-47F1-869B-432306B867B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>Titre</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>format</t>
+  </si>
+  <si>
+    <t>La maison des feuilles</t>
+  </si>
+  <si>
+    <t>Mark Danielewski</t>
   </si>
 </sst>
 </file>
@@ -275,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -336,6 +342,7 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +361,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,19 +677,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0F029C-E1E3-4307-B586-0CEB6433426B}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +709,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -722,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -742,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -762,7 +769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -782,7 +789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -802,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -822,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -842,7 +849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
@@ -862,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -882,7 +889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
@@ -902,7 +909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -922,7 +929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
@@ -942,7 +949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
@@ -962,7 +969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
@@ -982,7 +989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -1002,7 +1009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>35</v>
       </c>
@@ -1022,7 +1029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -1042,7 +1049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
@@ -1062,7 +1069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
@@ -1122,7 +1129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>42</v>
       </c>
@@ -1142,7 +1149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
@@ -1162,7 +1169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>45</v>
       </c>
@@ -1179,6 +1186,26 @@
         <v>572</v>
       </c>
       <c r="F25" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="22">
+        <v>45703</v>
+      </c>
+      <c r="D26" s="22">
+        <v>45717</v>
+      </c>
+      <c r="E26" s="18">
+        <v>650</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>19</v>
       </c>
     </row>
